--- a/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18.xlsx
+++ b/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donkey Kong\Documents\GitHub\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670F9754-1AEA-4AEB-9388-E98F2D3FE32F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18780" windowHeight="11895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bestellformular_SysProjekt" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Lieferant</t>
   </si>
@@ -46,18 +52,27 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>mouser.ch</t>
+  </si>
+  <si>
+    <t>785-HLC1395-001</t>
+  </si>
+  <si>
+    <t>InfrarotSensor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_ &quot;SFr.&quot;\ * #,##0.00_ ;_ &quot;SFr.&quot;\ * \-#,##0.00_ ;_ &quot;SFr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;SFr.&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +125,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,12 +211,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -235,7 +255,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -243,6 +262,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -254,14 +274,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,9 +322,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,9 +357,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,9 +409,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -544,53 +601,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="57.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,351 +657,361 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
+    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3.42</v>
+      </c>
+      <c r="F7" s="17">
         <f>B7*E7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="19">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="17">
         <f t="shared" ref="F8:F32" si="0">B8*E8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="12"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="12"/>
-      <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F48" s="19"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="19"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="19"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51" s="19"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59" s="19"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F63" s="19"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65" s="19"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F66" s="19"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E41" s="11"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E42" s="11"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -959,24 +1026,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18.xlsx
+++ b/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donkey Kong\Documents\GitHub\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeann\Documents\GitHub\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670F9754-1AEA-4AEB-9388-E98F2D3FE32F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556AF14-2A0E-476C-B879-512D799850B2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bestellformular_SysProjekt" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Lieferant</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>InfrarotSensor</t>
+  </si>
+  <si>
+    <t>conrad.ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249458 - 62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro-Servo S 36 S36 0.13 s </t>
   </si>
 </sst>
 </file>
@@ -72,7 +81,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;SFr.&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +140,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF616161"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -256,13 +271,14 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -605,49 +621,49 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.86328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="57.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" customWidth="1"/>
+    <col min="4" max="4" width="57.53125" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" style="10" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,20 +683,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>3.42</v>
       </c>
       <c r="F7" s="17">
@@ -688,15 +704,28 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="E8" s="11"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="11">
+        <v>9.9499999999999993</v>
+      </c>
       <c r="F8" s="17">
         <f t="shared" ref="F8:F32" si="0">B8*E8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="E9" s="11"/>
       <c r="F9" s="17">
@@ -704,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="E10" s="11"/>
       <c r="F10" s="17">
@@ -712,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="8"/>
@@ -722,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="C12" s="5"/>
       <c r="D12" s="8"/>
@@ -732,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="D13" s="7"/>
       <c r="E13" s="12"/>
@@ -741,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="E14" s="11"/>
       <c r="F14" s="17">
@@ -749,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="E15" s="11"/>
       <c r="F15" s="17">
@@ -757,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="E16" s="11"/>
       <c r="F16" s="17">
@@ -765,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="E17" s="11"/>
       <c r="F17" s="17">
@@ -773,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="E18" s="11"/>
       <c r="F18" s="17">
@@ -781,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="E19" s="11"/>
       <c r="F19" s="17">
@@ -789,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="E20" s="11"/>
       <c r="F20" s="17">
@@ -797,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="E21" s="11"/>
       <c r="F21" s="17">
@@ -805,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="E22" s="11"/>
       <c r="F22" s="17">
@@ -813,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="E23" s="11"/>
       <c r="F23" s="17">
@@ -821,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="E24" s="11"/>
       <c r="F24" s="17">
@@ -829,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="E25" s="11"/>
       <c r="F25" s="17">
@@ -837,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="E26" s="11"/>
       <c r="F26" s="17">
@@ -845,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="E27" s="11"/>
       <c r="F27" s="17">
@@ -853,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="E28" s="11"/>
       <c r="F28" s="17">
@@ -861,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="E29" s="11"/>
       <c r="F29" s="17">
@@ -869,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="E30" s="11"/>
       <c r="F30" s="17">
@@ -877,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="E31" s="11"/>
       <c r="F31" s="17">
@@ -885,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="E32" s="11"/>
       <c r="F32" s="17">
@@ -893,124 +922,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="E33" s="11"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="E34" s="11"/>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="E35" s="11"/>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="E36" s="11"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="E37" s="11"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="E38" s="11"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="E39" s="11"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="E40" s="11"/>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E41" s="11"/>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E42" s="11"/>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F51" s="17"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F52" s="17"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F65" s="17"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F66" s="17"/>
     </row>
   </sheetData>
@@ -1031,7 +1060,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1043,7 +1072,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18.xlsx
+++ b/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeann\Documents\GitHub\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donkey Kong\Documents\GitHub\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556AF14-2A0E-476C-B879-512D799850B2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bestellformular_SysProjekt" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Lieferant</t>
   </si>
@@ -54,12 +53,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>mouser.ch</t>
-  </si>
-  <si>
-    <t>785-HLC1395-001</t>
-  </si>
-  <si>
     <t>InfrarotSensor</t>
   </si>
   <si>
@@ -70,6 +63,18 @@
   </si>
   <si>
     <t xml:space="preserve">Micro-Servo S 36 S36 0.13 s </t>
+  </si>
+  <si>
+    <t>Optoreflektor Sensor HLC1395</t>
+  </si>
+  <si>
+    <t>NTB Lager( Anton Müller )</t>
+  </si>
+  <si>
+    <t>Marcel Sonderegger</t>
+  </si>
+  <si>
+    <t>msonderegger@ntb.ch</t>
   </si>
 </sst>
 </file>
@@ -81,7 +86,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;SFr.&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,16 +140,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF616161"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,11 +223,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -271,16 +273,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -621,49 +625,58 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.86328125" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.53125" customWidth="1"/>
-    <col min="4" max="4" width="57.53125" customWidth="1"/>
-    <col min="5" max="5" width="14.1328125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="57.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="10" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="18">
+        <v>10</v>
+      </c>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="19">
+        <f ca="1">TODAY()</f>
+        <v>43179</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,39 +696,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="18">
-        <v>3.42</v>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.1</v>
       </c>
       <c r="F7" s="17">
         <f>B7*E7</f>
-        <v>10.26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>14</v>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="11">
         <v>9.9499999999999993</v>
@@ -725,7 +738,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="E9" s="11"/>
       <c r="F9" s="17">
@@ -733,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="E10" s="11"/>
       <c r="F10" s="17">
@@ -741,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="8"/>
@@ -751,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="C12" s="5"/>
       <c r="D12" s="8"/>
@@ -761,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="D13" s="7"/>
       <c r="E13" s="12"/>
@@ -770,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="E14" s="11"/>
       <c r="F14" s="17">
@@ -778,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="E15" s="11"/>
       <c r="F15" s="17">
@@ -786,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="E16" s="11"/>
       <c r="F16" s="17">
@@ -794,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="E17" s="11"/>
       <c r="F17" s="17">
@@ -802,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="E18" s="11"/>
       <c r="F18" s="17">
@@ -810,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="E19" s="11"/>
       <c r="F19" s="17">
@@ -818,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="E20" s="11"/>
       <c r="F20" s="17">
@@ -826,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="E21" s="11"/>
       <c r="F21" s="17">
@@ -834,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="E22" s="11"/>
       <c r="F22" s="17">
@@ -842,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="E23" s="11"/>
       <c r="F23" s="17">
@@ -850,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="E24" s="11"/>
       <c r="F24" s="17">
@@ -858,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="E25" s="11"/>
       <c r="F25" s="17">
@@ -866,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="E26" s="11"/>
       <c r="F26" s="17">
@@ -874,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="E27" s="11"/>
       <c r="F27" s="17">
@@ -882,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="E28" s="11"/>
       <c r="F28" s="17">
@@ -890,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="E29" s="11"/>
       <c r="F29" s="17">
@@ -898,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="E30" s="11"/>
       <c r="F30" s="17">
@@ -906,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="E31" s="11"/>
       <c r="F31" s="17">
@@ -914,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="E32" s="11"/>
       <c r="F32" s="17">
@@ -922,124 +935,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="E33" s="11"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="E34" s="11"/>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="E35" s="11"/>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="E36" s="11"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="E37" s="11"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="E38" s="11"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="E39" s="11"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="E40" s="11"/>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E41" s="11"/>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E42" s="11"/>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F51" s="17"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F52" s="17"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F65" s="17"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F66" s="17"/>
     </row>
   </sheetData>
@@ -1049,8 +1062,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{CB6E8849-0AFE-408E-B408-EAF582FA3584}"/>
+  </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1060,7 +1076,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1072,7 +1088,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18.xlsx
+++ b/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Lieferant</t>
   </si>
@@ -53,9 +53,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>InfrarotSensor</t>
-  </si>
-  <si>
     <t>conrad.ch</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t xml:space="preserve">Micro-Servo S 36 S36 0.13 s </t>
   </si>
   <si>
-    <t>Optoreflektor Sensor HLC1395</t>
-  </si>
-  <si>
     <t>NTB Lager( Anton Müller )</t>
   </si>
   <si>
@@ -75,6 +69,21 @@
   </si>
   <si>
     <t>msonderegger@ntb.ch</t>
+  </si>
+  <si>
+    <t>1670-1026-ND</t>
+  </si>
+  <si>
+    <t>VIBRATION MOTOR CYL 5V WIRE</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>Optoreflektor Sensor</t>
+  </si>
+  <si>
+    <t>HLC1395</t>
   </si>
 </sst>
 </file>
@@ -276,10 +285,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -625,7 +634,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="18"/>
     </row>
@@ -660,8 +669,8 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>17</v>
+      <c r="B3" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="18"/>
     </row>
@@ -669,11 +678,11 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="20">
         <f ca="1">TODAY()</f>
         <v>43179</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -698,16 +707,16 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E7" s="11">
         <v>2.1</v>
@@ -719,16 +728,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
       </c>
       <c r="E8" s="11">
         <v>9.9499999999999993</v>
@@ -739,11 +748,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="E9" s="11"/>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5.46</v>
+      </c>
       <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">

--- a/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18.xlsx
+++ b/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donkey Kong\Documents\GitHub\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs003\stud\mstoffel\Desktop\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Bestellformular_SysProjekt" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Lieferant</t>
   </si>
@@ -71,31 +71,37 @@
     <t>msonderegger@ntb.ch</t>
   </si>
   <si>
-    <t>1670-1026-ND</t>
-  </si>
-  <si>
-    <t>VIBRATION MOTOR CYL 5V WIRE</t>
-  </si>
-  <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
     <t>Optoreflektor Sensor</t>
   </si>
   <si>
     <t>HLC1395</t>
+  </si>
+  <si>
+    <t>distrelec.ch</t>
+  </si>
+  <si>
+    <t>300-69-914</t>
+  </si>
+  <si>
+    <t>Grove Vibrationsmotor</t>
+  </si>
+  <si>
+    <t>Kunststoffplatte 295 x 295 x 2 mm, PTFE NATURE 295X295X2, No Brand</t>
+  </si>
+  <si>
+    <t>148-21-717</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_ &quot;SFr.&quot;\ * #,##0.00_ ;_ &quot;SFr.&quot;\ * \-#,##0.00_ ;_ &quot;SFr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;SFr.&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +162,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +255,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -291,6 +309,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -386,23 +406,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -438,23 +441,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -630,24 +616,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="57.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -656,7 +642,7 @@
       </c>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -665,7 +651,7 @@
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -674,18 +660,18 @@
       </c>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="20">
         <f ca="1">TODAY()</f>
-        <v>43179</v>
+        <v>43186</v>
       </c>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -713,10 +699,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="11">
         <v>2.1</v>
@@ -726,7 +712,7 @@
         <v>6.3000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -743,69 +729,80 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" ref="F8:F32" si="0">B8*E8</f>
+        <f t="shared" ref="F8:F31" si="0">B8*E8</f>
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
+      <c r="C9" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" s="11">
-        <v>5.46</v>
+        <v>3.15</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="E10" s="11"/>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9">
+        <v>37.26</v>
+      </c>
       <c r="F10" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="E14" s="11"/>
       <c r="F14" s="17">
@@ -813,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="E15" s="11"/>
       <c r="F15" s="17">
@@ -821,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="E16" s="11"/>
       <c r="F16" s="17">
@@ -829,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="E17" s="11"/>
       <c r="F17" s="17">
@@ -837,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="E18" s="11"/>
       <c r="F18" s="17">
@@ -845,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="E19" s="11"/>
       <c r="F19" s="17">
@@ -853,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="E20" s="11"/>
       <c r="F20" s="17">
@@ -861,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="E21" s="11"/>
       <c r="F21" s="17">
@@ -869,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="E22" s="11"/>
       <c r="F22" s="17">
@@ -877,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="E23" s="11"/>
       <c r="F23" s="17">
@@ -885,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="E24" s="11"/>
       <c r="F24" s="17">
@@ -893,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="E25" s="11"/>
       <c r="F25" s="17">
@@ -901,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="E26" s="11"/>
       <c r="F26" s="17">
@@ -909,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="E27" s="11"/>
       <c r="F27" s="17">
@@ -917,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="E28" s="11"/>
       <c r="F28" s="17">
@@ -925,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="E29" s="11"/>
       <c r="F29" s="17">
@@ -933,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="E30" s="11"/>
       <c r="F30" s="17">
@@ -941,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="E31" s="11"/>
       <c r="F31" s="17">
@@ -949,133 +946,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="E33" s="11"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="E34" s="11"/>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="E35" s="11"/>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="E36" s="11"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="E37" s="11"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="E38" s="11"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="E39" s="11"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E40" s="11"/>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E41" s="11"/>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E42" s="11"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="17"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="17"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="17"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F66" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1085,7 +1074,7 @@
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{CB6E8849-0AFE-408E-B408-EAF582FA3584}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
@@ -1093,24 +1082,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
